--- a/Code/Results/Cases/Case_0_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_82/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2335372151469528</v>
+        <v>0.3740083992081651</v>
       </c>
       <c r="D2">
-        <v>0.06761568513727667</v>
+        <v>0.02724418757612312</v>
       </c>
       <c r="E2">
-        <v>0.05742711165579806</v>
+        <v>0.1401897643330834</v>
       </c>
       <c r="F2">
-        <v>6.926095097750789</v>
+        <v>6.557428756354085</v>
       </c>
       <c r="G2">
-        <v>7.440038620817631</v>
+        <v>6.019396530403014</v>
       </c>
       <c r="H2">
-        <v>3.770653223023487</v>
+        <v>3.997281369321115</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.273271934435158</v>
+        <v>0.3938509743047263</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03239693575339686</v>
+        <v>0.1118087815777127</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2120268091206583</v>
+        <v>0.3726670103702929</v>
       </c>
       <c r="D3">
-        <v>0.05782722567459331</v>
+        <v>0.02489096839943272</v>
       </c>
       <c r="E3">
-        <v>0.05468454301451331</v>
+        <v>0.140626191770691</v>
       </c>
       <c r="F3">
-        <v>6.059136487086221</v>
+        <v>6.43494821266134</v>
       </c>
       <c r="G3">
-        <v>6.458976327817027</v>
+        <v>5.867864785000791</v>
       </c>
       <c r="H3">
-        <v>3.318947081333363</v>
+        <v>3.938905539796167</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2456420729790665</v>
+        <v>0.3915715013672525</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03272608976542557</v>
+        <v>0.1124519255948826</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1996632253161721</v>
+        <v>0.3720460413837117</v>
       </c>
       <c r="D4">
-        <v>0.05208498102042824</v>
+        <v>0.02343810531193213</v>
       </c>
       <c r="E4">
-        <v>0.05315826286363823</v>
+        <v>0.1409525226156241</v>
       </c>
       <c r="F4">
-        <v>5.555553857431477</v>
+        <v>6.364209360459199</v>
       </c>
       <c r="G4">
-        <v>5.888091129699717</v>
+        <v>5.779160603376454</v>
       </c>
       <c r="H4">
-        <v>3.057097341637359</v>
+        <v>3.905675968506898</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2297434582649984</v>
+        <v>0.3903992367864859</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03296710628261046</v>
+        <v>0.1128767092591527</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1948055559593485</v>
+        <v>0.3718436792811559</v>
       </c>
       <c r="D5">
-        <v>0.04979828696271227</v>
+        <v>0.02284387653259046</v>
       </c>
       <c r="E5">
-        <v>0.05257107954383677</v>
+        <v>0.1411001577117581</v>
       </c>
       <c r="F5">
-        <v>5.356360324129355</v>
+        <v>6.336493176804538</v>
       </c>
       <c r="G5">
-        <v>5.662019943948849</v>
+        <v>5.744089390514944</v>
       </c>
       <c r="H5">
-        <v>2.95364896679547</v>
+        <v>3.89278550608401</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2234911289099415</v>
+        <v>0.3899783203635465</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03307469026178111</v>
+        <v>0.1130573438889471</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1940090330891309</v>
+        <v>0.3718131309073129</v>
       </c>
       <c r="D6">
-        <v>0.0494214427301003</v>
+        <v>0.02274506901950701</v>
       </c>
       <c r="E6">
-        <v>0.05247555355124867</v>
+        <v>0.1411255567447682</v>
       </c>
       <c r="F6">
-        <v>5.323616883594013</v>
+        <v>6.331957644482998</v>
       </c>
       <c r="G6">
-        <v>5.624842896749556</v>
+        <v>5.738330452565265</v>
       </c>
       <c r="H6">
-        <v>2.936651657969094</v>
+        <v>3.890684183614837</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2224655385447392</v>
+        <v>0.3899118467761795</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03309310949289745</v>
+        <v>0.1130877934985755</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.199597019530529</v>
+        <v>0.37204310737323</v>
       </c>
       <c r="D7">
-        <v>0.05205394260811147</v>
+        <v>0.0234301003647488</v>
       </c>
       <c r="E7">
-        <v>0.05315020883714539</v>
+        <v>0.1409544543751622</v>
       </c>
       <c r="F7">
-        <v>5.552844520388078</v>
+        <v>6.363831089935104</v>
       </c>
       <c r="G7">
-        <v>5.885017261519806</v>
+        <v>5.778683280534892</v>
       </c>
       <c r="H7">
-        <v>3.055689772307119</v>
+        <v>3.905499496123923</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.229658269635479</v>
+        <v>0.3903933307030911</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03296851976479864</v>
+        <v>0.1128791148437678</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2259242859769586</v>
+        <v>0.3735036620072663</v>
       </c>
       <c r="D8">
-        <v>0.06417563243941515</v>
+        <v>0.02643434981806081</v>
       </c>
       <c r="E8">
-        <v>0.05644552528799274</v>
+        <v>0.1403281167795765</v>
       </c>
       <c r="F8">
-        <v>6.620403286783642</v>
+        <v>6.514263321210478</v>
       </c>
       <c r="G8">
-        <v>7.094335196361214</v>
+        <v>5.96623961162669</v>
       </c>
       <c r="H8">
-        <v>3.611262485488567</v>
+        <v>3.976607092242034</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2634961806852374</v>
+        <v>0.393017596131898</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.03250207407075933</v>
+        <v>0.1120243431398293</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2860866776414071</v>
+        <v>0.3779889155190688</v>
       </c>
       <c r="D9">
-        <v>0.09090339692829019</v>
+        <v>0.03227036071609746</v>
       </c>
       <c r="E9">
-        <v>0.06444084394235361</v>
+        <v>0.1395641598401873</v>
       </c>
       <c r="F9">
-        <v>9.012160033889785</v>
+        <v>6.845272920612103</v>
       </c>
       <c r="G9">
-        <v>9.794438350998007</v>
+        <v>6.369124433330228</v>
       </c>
       <c r="H9">
-        <v>4.86108089842935</v>
+        <v>4.137089045987068</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3407432876653331</v>
+        <v>0.3999858260429789</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03192038799232932</v>
+        <v>0.1105846253203246</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.339060826668458</v>
+        <v>0.3822922488742222</v>
       </c>
       <c r="D10">
-        <v>0.1139950286449363</v>
+        <v>0.03653591584334492</v>
       </c>
       <c r="E10">
-        <v>0.07179623108617506</v>
+        <v>0.1392878426893951</v>
       </c>
       <c r="F10">
-        <v>11.08826196295684</v>
+        <v>7.111286806379837</v>
       </c>
       <c r="G10">
-        <v>12.13220938904902</v>
+        <v>6.687509928407451</v>
       </c>
       <c r="H10">
-        <v>5.949959592123605</v>
+        <v>4.268271190672465</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4088812527569132</v>
+        <v>0.4062432343927043</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03174279903042887</v>
+        <v>0.1096701222095007</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3663498309323927</v>
+        <v>0.3844733748431963</v>
       </c>
       <c r="D11">
-        <v>0.1258632574841485</v>
+        <v>0.03847420542636826</v>
       </c>
       <c r="E11">
-        <v>0.07566002746855105</v>
+        <v>0.1392244798864475</v>
       </c>
       <c r="F11">
-        <v>12.15158380470137</v>
+        <v>7.237455936493802</v>
       </c>
       <c r="G11">
-        <v>13.32826152383205</v>
+        <v>6.837438603795249</v>
       </c>
       <c r="H11">
-        <v>6.508780223632812</v>
+        <v>4.330934473592549</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4440710487428703</v>
+        <v>0.4093431699043464</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03173287495055632</v>
+        <v>0.1092850110906998</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3773154284783971</v>
+        <v>0.3853318263369374</v>
       </c>
       <c r="D12">
-        <v>0.1306383530204442</v>
+        <v>0.03920808962710964</v>
       </c>
       <c r="E12">
-        <v>0.07722393237793312</v>
+        <v>0.1392094891314848</v>
       </c>
       <c r="F12">
-        <v>12.57805226531497</v>
+        <v>7.285990733471635</v>
       </c>
       <c r="G12">
-        <v>13.80778760480979</v>
+        <v>6.894963572998677</v>
       </c>
       <c r="H12">
-        <v>6.733099939079011</v>
+        <v>4.355101455187651</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4582327473209773</v>
+        <v>0.4105539854505622</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03174151950114812</v>
+        <v>0.1091436088602382</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.374921995985261</v>
+        <v>0.3851454917516719</v>
       </c>
       <c r="D13">
-        <v>0.1295956240171634</v>
+        <v>0.03905003587206579</v>
       </c>
       <c r="E13">
-        <v>0.07688207514096135</v>
+        <v>0.139212316574941</v>
       </c>
       <c r="F13">
-        <v>12.48500185312605</v>
+        <v>7.275503962648315</v>
       </c>
       <c r="G13">
-        <v>13.70316819822921</v>
+        <v>6.882540885201593</v>
       </c>
       <c r="H13">
-        <v>6.684146921793626</v>
+        <v>4.34987706190077</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4551405944424829</v>
+        <v>0.4102915637443232</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.03173905929410381</v>
+        <v>0.1091738654864134</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991888</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3672380185738291</v>
+        <v>0.3845433465452288</v>
       </c>
       <c r="D14">
-        <v>0.1262498356515991</v>
+        <v>0.03853458342437222</v>
       </c>
       <c r="E14">
-        <v>0.07578647462297639</v>
+        <v>0.1392230659115725</v>
       </c>
       <c r="F14">
-        <v>12.18614198340555</v>
+        <v>7.241433655332344</v>
       </c>
       <c r="G14">
-        <v>13.36712253413953</v>
+        <v>6.842156077834716</v>
       </c>
       <c r="H14">
-        <v>6.526953613244984</v>
+        <v>4.332913885022492</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4452176330550657</v>
+        <v>0.4094420412342998</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.03173332113323646</v>
+        <v>0.1092732891106643</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3626201995297151</v>
+        <v>0.3841787595909523</v>
       </c>
       <c r="D15">
-        <v>0.1242402684601629</v>
+        <v>0.03821884648418461</v>
       </c>
       <c r="E15">
-        <v>0.07512950594990642</v>
+        <v>0.1392308239119444</v>
       </c>
       <c r="F15">
-        <v>12.0064376537797</v>
+        <v>7.220663700067291</v>
       </c>
       <c r="G15">
-        <v>13.16503636221529</v>
+        <v>6.817517457855274</v>
       </c>
       <c r="H15">
-        <v>6.432458833655687</v>
+        <v>4.322580703489336</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4392572701203221</v>
+        <v>0.4089265095695254</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03173150477495135</v>
+        <v>0.1093347656319708</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193845</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3373546757229917</v>
+        <v>0.3821542357728163</v>
       </c>
       <c r="D16">
-        <v>0.1132531977763449</v>
+        <v>0.03640921834443134</v>
       </c>
       <c r="E16">
-        <v>0.07155612757120267</v>
+        <v>0.1392932412751655</v>
       </c>
       <c r="F16">
-        <v>11.02166929629846</v>
+        <v>7.103146468933517</v>
       </c>
       <c r="G16">
-        <v>12.05728015360671</v>
+        <v>6.677815739129528</v>
       </c>
       <c r="H16">
-        <v>5.914986072032207</v>
+        <v>4.264236807723648</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4066834415191778</v>
+        <v>0.4060457876422987</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03174504099638931</v>
+        <v>0.1096959108538726</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3227727474452706</v>
+        <v>0.380969759335386</v>
       </c>
       <c r="D17">
-        <v>0.1069108966327832</v>
+        <v>0.03529866632443657</v>
       </c>
       <c r="E17">
-        <v>0.06951188842587186</v>
+        <v>0.1393475253000567</v>
       </c>
       <c r="F17">
-        <v>10.4518853079355</v>
+        <v>7.032385468442385</v>
       </c>
       <c r="G17">
-        <v>11.41603184446399</v>
+        <v>6.593430308115501</v>
       </c>
       <c r="H17">
-        <v>5.615863996717167</v>
+        <v>4.229215660517411</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3879094107205248</v>
+        <v>0.4043438101738843</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03177278701599562</v>
+        <v>0.109925367196098</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3146723282125805</v>
+        <v>0.3803094957090565</v>
       </c>
       <c r="D18">
-        <v>0.103384602963132</v>
+        <v>0.03465969297023719</v>
       </c>
       <c r="E18">
-        <v>0.0683827656478897</v>
+        <v>0.1393846128102574</v>
       </c>
       <c r="F18">
-        <v>10.13482204139115</v>
+        <v>6.992170153445443</v>
       </c>
       <c r="G18">
-        <v>11.05908801843202</v>
+        <v>6.545372367118489</v>
       </c>
       <c r="H18">
-        <v>5.44951024397858</v>
+        <v>4.209353153736913</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3774874174671368</v>
+        <v>0.4033886989461308</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.03179524243471121</v>
+        <v>0.1100602536844804</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033279</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3119748218904874</v>
+        <v>0.3800895404093296</v>
       </c>
       <c r="D19">
-        <v>0.1022095773242668</v>
+        <v>0.03444330486869518</v>
       </c>
       <c r="E19">
-        <v>0.06800785671824983</v>
+        <v>0.1393981761159253</v>
       </c>
       <c r="F19">
-        <v>10.02914277816888</v>
+        <v>6.978636693420697</v>
       </c>
       <c r="G19">
-        <v>10.94009668781814</v>
+        <v>6.529182394438465</v>
       </c>
       <c r="H19">
-        <v>5.394079313083466</v>
+        <v>4.202676023481445</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3740178570433983</v>
+        <v>0.4030693911607131</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.03180390854088166</v>
+        <v>0.1101064239886753</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3242943338073587</v>
+        <v>0.3810936712141313</v>
       </c>
       <c r="D20">
-        <v>0.1075729684218842</v>
+        <v>0.03541690709860035</v>
       </c>
       <c r="E20">
-        <v>0.06972451715238037</v>
+        <v>0.139341139411755</v>
       </c>
       <c r="F20">
-        <v>10.51139725604949</v>
+        <v>7.039867838568171</v>
       </c>
       <c r="G20">
-        <v>11.48301983350552</v>
+        <v>6.602363649255153</v>
       </c>
       <c r="H20">
-        <v>5.647095980284575</v>
+        <v>4.232914609046873</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3898676323045436</v>
+        <v>0.4045225196344688</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.03176914801321296</v>
+        <v>0.1099006401707037</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.369476037511987</v>
+        <v>0.3847193259934159</v>
       </c>
       <c r="D21">
-        <v>0.1272240573226853</v>
+        <v>0.03868598548244506</v>
       </c>
       <c r="E21">
-        <v>0.07610527043124549</v>
+        <v>0.1392196638943375</v>
       </c>
       <c r="F21">
-        <v>12.27320794986645</v>
+        <v>7.251420251305944</v>
       </c>
       <c r="G21">
-        <v>13.46502633586744</v>
+        <v>6.853997568860336</v>
       </c>
       <c r="H21">
-        <v>6.572742843198057</v>
+        <v>4.337884434673185</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4481071191916186</v>
+        <v>0.4096905600656129</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0317346470788582</v>
+        <v>0.1092439658245432</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709366</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4028423386720306</v>
+        <v>0.3872785531142995</v>
       </c>
       <c r="D22">
-        <v>0.1417822289321791</v>
+        <v>0.04082200908542433</v>
       </c>
       <c r="E22">
-        <v>0.08088623369850367</v>
+        <v>0.139192771249089</v>
       </c>
       <c r="F22">
-        <v>13.56948133574434</v>
+        <v>7.394103624924867</v>
       </c>
       <c r="G22">
-        <v>14.92225333351519</v>
+        <v>7.02283649814234</v>
       </c>
       <c r="H22">
-        <v>7.254988255028024</v>
+        <v>4.409043827508242</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4912530496321921</v>
+        <v>0.4132837161551492</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.03178633260307606</v>
+        <v>0.1088406128403481</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057951</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.384600295411758</v>
+        <v>0.3858951678991502</v>
       </c>
       <c r="D23">
-        <v>0.1338140555039828</v>
+        <v>0.03968195115069051</v>
       </c>
       <c r="E23">
-        <v>0.07826611377874926</v>
+        <v>0.1392023070030604</v>
       </c>
       <c r="F23">
-        <v>12.86116217858034</v>
+        <v>7.317540962805481</v>
       </c>
       <c r="G23">
-        <v>14.12607247307562</v>
+        <v>6.93231703334925</v>
       </c>
       <c r="H23">
-        <v>6.882072345833365</v>
+        <v>4.370828136050818</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4676482615125224</v>
+        <v>0.4113460896759875</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.03175090868180419</v>
+        <v>0.1090535312789793</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3236055551013521</v>
+        <v>0.3810375861811224</v>
       </c>
       <c r="D24">
-        <v>0.1072732777654082</v>
+        <v>0.03536345202419966</v>
       </c>
       <c r="E24">
-        <v>0.06962824578383575</v>
+        <v>0.1393440081633202</v>
       </c>
       <c r="F24">
-        <v>10.48445961317665</v>
+        <v>7.036483608324176</v>
       </c>
       <c r="G24">
-        <v>11.45269857437358</v>
+        <v>6.598323465582098</v>
       </c>
       <c r="H24">
-        <v>5.632958751779029</v>
+        <v>4.231241468999428</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3889811791386109</v>
+        <v>0.4044416523062608</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03177077309887544</v>
+        <v>0.1099118100100451</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2685949683186948</v>
+        <v>0.3765999893398657</v>
       </c>
       <c r="D25">
-        <v>0.08321817270994103</v>
+        <v>0.03069630908392895</v>
       </c>
       <c r="E25">
-        <v>0.06206737941968399</v>
+        <v>0.1397209344320949</v>
       </c>
       <c r="F25">
-        <v>8.321611103338483</v>
+        <v>6.751782705295085</v>
       </c>
       <c r="G25">
-        <v>9.015823542173337</v>
+        <v>6.256275961389804</v>
       </c>
       <c r="H25">
-        <v>4.499648181230498</v>
+        <v>4.091376358756406</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3182791498872461</v>
+        <v>0.3979029319190772</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.03203811884845997</v>
+        <v>0.1109488849940234</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_82/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_82/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3740083992081651</v>
+        <v>0.2335372151467681</v>
       </c>
       <c r="D2">
-        <v>0.02724418757612312</v>
+        <v>0.06761568513729799</v>
       </c>
       <c r="E2">
-        <v>0.1401897643330834</v>
+        <v>0.05742711165579628</v>
       </c>
       <c r="F2">
-        <v>6.557428756354085</v>
+        <v>6.926095097750789</v>
       </c>
       <c r="G2">
-        <v>6.019396530403014</v>
+        <v>7.440038620817575</v>
       </c>
       <c r="H2">
-        <v>3.997281369321115</v>
+        <v>3.770653223023487</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3938509743047263</v>
+        <v>0.2732719344350301</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1118087815777127</v>
+        <v>0.03239693575336844</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3726670103702929</v>
+        <v>0.2120268091202746</v>
       </c>
       <c r="D3">
-        <v>0.02489096839943272</v>
+        <v>0.05782722567459331</v>
       </c>
       <c r="E3">
-        <v>0.140626191770691</v>
+        <v>0.05468454301446002</v>
       </c>
       <c r="F3">
-        <v>6.43494821266134</v>
+        <v>6.059136487086278</v>
       </c>
       <c r="G3">
-        <v>5.867864785000791</v>
+        <v>6.45897632781697</v>
       </c>
       <c r="H3">
-        <v>3.938905539796167</v>
+        <v>3.318947081333363</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3915715013672525</v>
+        <v>0.2456420729790096</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1124519255948826</v>
+        <v>0.03272608976548064</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3720460413837117</v>
+        <v>0.1996632253161579</v>
       </c>
       <c r="D4">
-        <v>0.02343810531193213</v>
+        <v>0.05208498102066983</v>
       </c>
       <c r="E4">
-        <v>0.1409525226156241</v>
+        <v>0.05315826286368264</v>
       </c>
       <c r="F4">
-        <v>6.364209360459199</v>
+        <v>5.555553857431534</v>
       </c>
       <c r="G4">
-        <v>5.779160603376454</v>
+        <v>5.88809112969966</v>
       </c>
       <c r="H4">
-        <v>3.905675968506898</v>
+        <v>3.057097341637359</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3903992367864859</v>
+        <v>0.2297434582648066</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1128767092591527</v>
+        <v>0.03296710628242217</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3718436792811559</v>
+        <v>0.1948055559593627</v>
       </c>
       <c r="D5">
-        <v>0.02284387653259046</v>
+        <v>0.04979828696297517</v>
       </c>
       <c r="E5">
-        <v>0.1411001577117581</v>
+        <v>0.05257107954384921</v>
       </c>
       <c r="F5">
-        <v>6.336493176804538</v>
+        <v>5.356360324129383</v>
       </c>
       <c r="G5">
-        <v>5.744089390514944</v>
+        <v>5.662019943948849</v>
       </c>
       <c r="H5">
-        <v>3.89278550608401</v>
+        <v>2.953648966795413</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3899783203635465</v>
+        <v>0.2234911289097994</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1130573438889471</v>
+        <v>0.03307469026193388</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3718131309073129</v>
+        <v>0.1940090330891167</v>
       </c>
       <c r="D6">
-        <v>0.02274506901950701</v>
+        <v>0.0494214427301074</v>
       </c>
       <c r="E6">
-        <v>0.1411255567447682</v>
+        <v>0.05247555355120248</v>
       </c>
       <c r="F6">
-        <v>6.331957644482998</v>
+        <v>5.323616883594042</v>
       </c>
       <c r="G6">
-        <v>5.738330452565265</v>
+        <v>5.624842896749556</v>
       </c>
       <c r="H6">
-        <v>3.890684183614837</v>
+        <v>2.936651657969094</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3899118467761795</v>
+        <v>0.2224655385448528</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1130877934985755</v>
+        <v>0.03309310949289745</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.37204310737323</v>
+        <v>0.1995970195307564</v>
       </c>
       <c r="D7">
-        <v>0.0234301003647488</v>
+        <v>0.0520539426078841</v>
       </c>
       <c r="E7">
-        <v>0.1409544543751622</v>
+        <v>0.05315020883714006</v>
       </c>
       <c r="F7">
-        <v>6.363831089935104</v>
+        <v>5.552844520388106</v>
       </c>
       <c r="G7">
-        <v>5.778683280534892</v>
+        <v>5.885017261519806</v>
       </c>
       <c r="H7">
-        <v>3.905499496123923</v>
+        <v>3.055689772307119</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3903933307030911</v>
+        <v>0.2296582696354292</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1128791148437678</v>
+        <v>0.03296851976467075</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3735036620072663</v>
+        <v>0.2259242859769586</v>
       </c>
       <c r="D8">
-        <v>0.02643434981806081</v>
+        <v>0.06417563243961411</v>
       </c>
       <c r="E8">
-        <v>0.1403281167795765</v>
+        <v>0.05644552528796787</v>
       </c>
       <c r="F8">
-        <v>6.514263321210478</v>
+        <v>6.620403286783613</v>
       </c>
       <c r="G8">
-        <v>5.96623961162669</v>
+        <v>7.094335196360987</v>
       </c>
       <c r="H8">
-        <v>3.976607092242034</v>
+        <v>3.61126248548851</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.393017596131898</v>
+        <v>0.2634961806850811</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1120243431398293</v>
+        <v>0.03250207407057815</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3779889155190688</v>
+        <v>0.2860866776413786</v>
       </c>
       <c r="D9">
-        <v>0.03227036071609746</v>
+        <v>0.09090339692846783</v>
       </c>
       <c r="E9">
-        <v>0.1395641598401873</v>
+        <v>0.06444084394230742</v>
       </c>
       <c r="F9">
-        <v>6.845272920612103</v>
+        <v>9.01216003388987</v>
       </c>
       <c r="G9">
-        <v>6.369124433330228</v>
+        <v>9.794438350998178</v>
       </c>
       <c r="H9">
-        <v>4.137089045987068</v>
+        <v>4.861080898429407</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3999858260429789</v>
+        <v>0.3407432876652337</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1105846253203246</v>
+        <v>0.03192038799222807</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3822922488742222</v>
+        <v>0.339060826668458</v>
       </c>
       <c r="D10">
-        <v>0.03653591584334492</v>
+        <v>0.113995028644716</v>
       </c>
       <c r="E10">
-        <v>0.1392878426893951</v>
+        <v>0.07179623108619992</v>
       </c>
       <c r="F10">
-        <v>7.111286806379837</v>
+        <v>11.08826196295689</v>
       </c>
       <c r="G10">
-        <v>6.687509928407451</v>
+        <v>12.13220938904908</v>
       </c>
       <c r="H10">
-        <v>4.268271190672465</v>
+        <v>5.949959592123662</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4062432343927043</v>
+        <v>0.4088812527570127</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1096701222095007</v>
+        <v>0.03174279903027433</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3844733748431963</v>
+        <v>0.3663498309319948</v>
       </c>
       <c r="D11">
-        <v>0.03847420542636826</v>
+        <v>0.1258632574844256</v>
       </c>
       <c r="E11">
-        <v>0.1392244798864475</v>
+        <v>0.07566002746845513</v>
       </c>
       <c r="F11">
-        <v>7.237455936493802</v>
+        <v>12.15158380470132</v>
       </c>
       <c r="G11">
-        <v>6.837438603795249</v>
+        <v>13.328261523832</v>
       </c>
       <c r="H11">
-        <v>4.330934473592549</v>
+        <v>6.508780223632925</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4093431699043464</v>
+        <v>0.444071048742785</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1092850110906998</v>
+        <v>0.03173287495034671</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3853318263369374</v>
+        <v>0.3773154284774307</v>
       </c>
       <c r="D12">
-        <v>0.03920808962710964</v>
+        <v>0.1306383530204371</v>
       </c>
       <c r="E12">
-        <v>0.1392094891314848</v>
+        <v>0.07722393237791536</v>
       </c>
       <c r="F12">
-        <v>7.285990733471635</v>
+        <v>12.57805226531491</v>
       </c>
       <c r="G12">
-        <v>6.894963572998677</v>
+        <v>13.80778760480979</v>
       </c>
       <c r="H12">
-        <v>4.355101455187651</v>
+        <v>6.733099939078954</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4105539854505622</v>
+        <v>0.4582327473208778</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1091436088602382</v>
+        <v>0.03174151950124759</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3851454917516719</v>
+        <v>0.3749219959853463</v>
       </c>
       <c r="D13">
-        <v>0.03905003587206579</v>
+        <v>0.1295956240171563</v>
       </c>
       <c r="E13">
-        <v>0.139212316574941</v>
+        <v>0.0768820751409578</v>
       </c>
       <c r="F13">
-        <v>7.275503962648315</v>
+        <v>12.48500185312605</v>
       </c>
       <c r="G13">
-        <v>6.882540885201593</v>
+        <v>13.70316819822938</v>
       </c>
       <c r="H13">
-        <v>4.34987706190077</v>
+        <v>6.684146921793683</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4102915637443232</v>
+        <v>0.4551405944426818</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1091738654864134</v>
+        <v>0.03173905929409315</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3845433465452288</v>
+        <v>0.3672380185743407</v>
       </c>
       <c r="D14">
-        <v>0.03853458342437222</v>
+        <v>0.126249835651592</v>
       </c>
       <c r="E14">
-        <v>0.1392230659115725</v>
+        <v>0.07578647462302257</v>
       </c>
       <c r="F14">
-        <v>7.241433655332344</v>
+        <v>12.18614198340561</v>
       </c>
       <c r="G14">
-        <v>6.842156077834716</v>
+        <v>13.36712253413947</v>
       </c>
       <c r="H14">
-        <v>4.332913885022492</v>
+        <v>6.526953613244928</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4094420412342998</v>
+        <v>0.4452176330550515</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1092732891106643</v>
+        <v>0.0317333211331281</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139294</v>
+        <v>12.06092695796553</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3841787595909523</v>
+        <v>0.3626201995296867</v>
       </c>
       <c r="D15">
-        <v>0.03821884648418461</v>
+        <v>0.1242402684603761</v>
       </c>
       <c r="E15">
-        <v>0.1392308239119444</v>
+        <v>0.07512950594993129</v>
       </c>
       <c r="F15">
-        <v>7.220663700067291</v>
+        <v>12.0064376537797</v>
       </c>
       <c r="G15">
-        <v>6.817517457855274</v>
+        <v>13.16503636221523</v>
       </c>
       <c r="H15">
-        <v>4.322580703489336</v>
+        <v>6.432458833655801</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4089265095695254</v>
+        <v>0.43925727012018</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1093347656319708</v>
+        <v>0.03173150477515208</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3821542357728163</v>
+        <v>0.3373546757233612</v>
       </c>
       <c r="D16">
-        <v>0.03640921834443134</v>
+        <v>0.1132531977761388</v>
       </c>
       <c r="E16">
-        <v>0.1392932412751655</v>
+        <v>0.07155612757125951</v>
       </c>
       <c r="F16">
-        <v>7.103146468933517</v>
+        <v>11.02166929629846</v>
       </c>
       <c r="G16">
-        <v>6.677815739129528</v>
+        <v>12.05728015360671</v>
       </c>
       <c r="H16">
-        <v>4.264236807723648</v>
+        <v>5.914986072032264</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4060457876422987</v>
+        <v>0.4066834415192631</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1096959108538726</v>
+        <v>0.03174504099649766</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.380969759335386</v>
+        <v>0.322772747445299</v>
       </c>
       <c r="D17">
-        <v>0.03529866632443657</v>
+        <v>0.1069108966328045</v>
       </c>
       <c r="E17">
-        <v>0.1393475253000567</v>
+        <v>0.0695118884258612</v>
       </c>
       <c r="F17">
-        <v>7.032385468442385</v>
+        <v>10.45188530793544</v>
       </c>
       <c r="G17">
-        <v>6.593430308115501</v>
+        <v>11.41603184446387</v>
       </c>
       <c r="H17">
-        <v>4.229215660517411</v>
+        <v>5.61586399671711</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4043438101738843</v>
+        <v>0.3879094107204821</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.109925367196098</v>
+        <v>0.03177278701586417</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3803094957090565</v>
+        <v>0.3146723282125805</v>
       </c>
       <c r="D18">
-        <v>0.03465969297023719</v>
+        <v>0.1033846029635086</v>
       </c>
       <c r="E18">
-        <v>0.1393846128102574</v>
+        <v>0.06838276564790036</v>
       </c>
       <c r="F18">
-        <v>6.992170153445443</v>
+        <v>10.13482204139123</v>
       </c>
       <c r="G18">
-        <v>6.545372367118489</v>
+        <v>11.05908801843213</v>
       </c>
       <c r="H18">
-        <v>4.209353153736913</v>
+        <v>5.449510243978636</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4033886989461308</v>
+        <v>0.3774874174672505</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1100602536844804</v>
+        <v>0.03179524243472187</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3800895404093296</v>
+        <v>0.31197482188999</v>
       </c>
       <c r="D19">
-        <v>0.03444330486869518</v>
+        <v>0.1022095773244374</v>
       </c>
       <c r="E19">
-        <v>0.1393981761159253</v>
+        <v>0.06800785671826048</v>
       </c>
       <c r="F19">
-        <v>6.978636693420697</v>
+        <v>10.02914277816899</v>
       </c>
       <c r="G19">
-        <v>6.529182394438465</v>
+        <v>10.94009668781831</v>
       </c>
       <c r="H19">
-        <v>4.202676023481445</v>
+        <v>5.394079313083523</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4030693911607131</v>
+        <v>0.3740178570434409</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1101064239886753</v>
+        <v>0.03180390854101489</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3810936712141313</v>
+        <v>0.3242943338068756</v>
       </c>
       <c r="D20">
-        <v>0.03541690709860035</v>
+        <v>0.1075729684218487</v>
       </c>
       <c r="E20">
-        <v>0.139341139411755</v>
+        <v>0.06972451715236616</v>
       </c>
       <c r="F20">
-        <v>7.039867838568171</v>
+        <v>10.51139725604963</v>
       </c>
       <c r="G20">
-        <v>6.602363649255153</v>
+        <v>11.48301983350592</v>
       </c>
       <c r="H20">
-        <v>4.232914609046873</v>
+        <v>5.647095980284746</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4045225196344688</v>
+        <v>0.3898676323044725</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1099006401707037</v>
+        <v>0.0317691480132396</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3847193259934159</v>
+        <v>0.3694760375123849</v>
       </c>
       <c r="D21">
-        <v>0.03868598548244506</v>
+        <v>0.1272240573220245</v>
       </c>
       <c r="E21">
-        <v>0.1392196638943375</v>
+        <v>0.07610527043125259</v>
       </c>
       <c r="F21">
-        <v>7.251420251305944</v>
+        <v>12.27320794986645</v>
       </c>
       <c r="G21">
-        <v>6.853997568860336</v>
+        <v>13.46502633586749</v>
       </c>
       <c r="H21">
-        <v>4.337884434673185</v>
+        <v>6.572742843198114</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4096905600656129</v>
+        <v>0.4481071191916897</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1092439658245432</v>
+        <v>0.03173464707867346</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709366</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3872785531142995</v>
+        <v>0.4028423386720306</v>
       </c>
       <c r="D22">
-        <v>0.04082200908542433</v>
+        <v>0.141782228932378</v>
       </c>
       <c r="E22">
-        <v>0.139192771249089</v>
+        <v>0.08088623369843617</v>
       </c>
       <c r="F22">
-        <v>7.394103624924867</v>
+        <v>13.56948133574446</v>
       </c>
       <c r="G22">
-        <v>7.02283649814234</v>
+        <v>14.92225333351541</v>
       </c>
       <c r="H22">
-        <v>4.409043827508242</v>
+        <v>7.254988255028024</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4132837161551492</v>
+        <v>0.4912530496323768</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1088406128403481</v>
+        <v>0.03178633260298191</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3858951678991502</v>
+        <v>0.3846002954117296</v>
       </c>
       <c r="D23">
-        <v>0.03968195115069051</v>
+        <v>0.1338140555039686</v>
       </c>
       <c r="E23">
-        <v>0.1392023070030604</v>
+        <v>0.07826611377874215</v>
       </c>
       <c r="F23">
-        <v>7.317540962805481</v>
+        <v>12.86116217858046</v>
       </c>
       <c r="G23">
-        <v>6.93231703334925</v>
+        <v>14.12607247307568</v>
       </c>
       <c r="H23">
-        <v>4.370828136050818</v>
+        <v>6.882072345833308</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4113460896759875</v>
+        <v>0.4676482615128208</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1090535312789793</v>
+        <v>0.0317509086819765</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3810375861811224</v>
+        <v>0.3236055551022616</v>
       </c>
       <c r="D24">
-        <v>0.03536345202419966</v>
+        <v>0.1072732777655787</v>
       </c>
       <c r="E24">
-        <v>0.1393440081633202</v>
+        <v>0.06962824578381444</v>
       </c>
       <c r="F24">
-        <v>7.036483608324176</v>
+        <v>10.48445961317677</v>
       </c>
       <c r="G24">
-        <v>6.598323465582098</v>
+        <v>11.45269857437358</v>
       </c>
       <c r="H24">
-        <v>4.231241468999428</v>
+        <v>5.632958751779029</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4044416523062608</v>
+        <v>0.3889811791387388</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1099118100100451</v>
+        <v>0.03177077309899623</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3765999893398657</v>
+        <v>0.2685949683191069</v>
       </c>
       <c r="D25">
-        <v>0.03069630908392895</v>
+        <v>0.08321817270994103</v>
       </c>
       <c r="E25">
-        <v>0.1397209344320949</v>
+        <v>0.06206737941976215</v>
       </c>
       <c r="F25">
-        <v>6.751782705295085</v>
+        <v>8.321611103338455</v>
       </c>
       <c r="G25">
-        <v>6.256275961389804</v>
+        <v>9.01582354217328</v>
       </c>
       <c r="H25">
-        <v>4.091376358756406</v>
+        <v>4.499648181230498</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3979029319190772</v>
+        <v>0.3182791498872461</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1109488849940234</v>
+        <v>0.03203811884824503</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.006838561192296</v>
       </c>
       <c r="O25">
         <v>0</v>
